--- a/CFC Fantasy League 2025.xlsx
+++ b/CFC Fantasy League 2025.xlsx
@@ -37,12 +37,12 @@
     <t>Tormented Titans</t>
   </si>
   <si>
+    <t>Gujju Gang</t>
+  </si>
+  <si>
     <t>La Furia Roja</t>
   </si>
   <si>
-    <t>Gujju Gang</t>
-  </si>
-  <si>
     <t>Raging Raptors</t>
   </si>
   <si>
@@ -55,24 +55,27 @@
     <t>Krunal Pandya</t>
   </si>
   <si>
+    <t>Sunil Narine</t>
+  </si>
+  <si>
     <t>Ajinkya Rahane</t>
   </si>
   <si>
+    <t>Philip Salt</t>
+  </si>
+  <si>
+    <t>Josh Hazlewood</t>
+  </si>
+  <si>
     <t>Virat Kohli</t>
   </si>
   <si>
-    <t>Sunil Narine</t>
-  </si>
-  <si>
-    <t>Philip Salt</t>
-  </si>
-  <si>
-    <t>Josh Hazlewood</t>
-  </si>
-  <si>
     <t>Rajat Patidar</t>
   </si>
   <si>
+    <t>Liam Livingstone</t>
+  </si>
+  <si>
     <t>Yash Dayal</t>
   </si>
   <si>
@@ -88,34 +91,31 @@
     <t>Jitesh Sharma</t>
   </si>
   <si>
+    <t>Rinku Singh</t>
+  </si>
+  <si>
     <t>Suyash Sharma</t>
   </si>
   <si>
-    <t>Rinku Singh</t>
+    <t>Devdutt Padikkal</t>
+  </si>
+  <si>
+    <t>Harshit Rana</t>
+  </si>
+  <si>
+    <t>Vaibhav Arora</t>
+  </si>
+  <si>
+    <t>Venkatesh Iyer</t>
+  </si>
+  <si>
+    <t>Quinton de Kock</t>
+  </si>
+  <si>
+    <t>Andre Russell</t>
   </si>
   <si>
     <t>Spencer Johnson</t>
-  </si>
-  <si>
-    <t>Liam Livingstone</t>
-  </si>
-  <si>
-    <t>Devdutt Padikkal</t>
-  </si>
-  <si>
-    <t>Harshit Rana</t>
-  </si>
-  <si>
-    <t>Vaibhav Arora</t>
-  </si>
-  <si>
-    <t>Venkatesh Iyer</t>
-  </si>
-  <si>
-    <t>Quinton de Kock</t>
-  </si>
-  <si>
-    <t>Andre Russell</t>
   </si>
   <si>
     <t>Tim David</t>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1129,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1146,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1241,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>667</v>
+        <v>167</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>167</v>
@@ -1258,16 +1258,16 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>635</v>
+        <v>148</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>631</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1292,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1309,7 +1309,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1360,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1377,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1411,7 +1411,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1428,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1479,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1513,7 +1513,7 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1530,7 +1530,7 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1547,7 +1547,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1598,7 +1598,7 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1772,7 +1772,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>135</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>57</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>148</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>19</v>
+        <v>-6</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>14</v>
       </c>
       <c r="W10">
-        <v>10.5</v>
+        <v>13.28</v>
       </c>
       <c r="X10">
-        <v>5</v>
+        <v>-20</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>25</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>15.37</v>
+        <v>14</v>
       </c>
       <c r="X13">
         <v>-20</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>131</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>135</v>
@@ -3512,10 +3512,10 @@
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3524,31 +3524,31 @@
         <v>73</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>40</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>43</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>39</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>132</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>59</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -4575,13 +4575,13 @@
         <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>78</v>
@@ -4626,7 +4626,7 @@
         <v>91</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>92</v>
@@ -4692,7 +4692,7 @@
         <v>111</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>112</v>
@@ -4743,7 +4743,7 @@
         <v>127</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>128</v>
@@ -4752,7 +4752,7 @@
         <v>129</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BL1" s="1" t="s">
         <v>130</v>
@@ -4764,7 +4764,7 @@
         <v>132</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>133</v>
@@ -4809,7 +4809,7 @@
         <v>145</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>146</v>
@@ -4836,7 +4836,7 @@
         <v>153</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CN1" s="1" t="s">
         <v>154</v>
@@ -4851,7 +4851,7 @@
         <v>157</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>158</v>
@@ -4863,7 +4863,7 @@
         <v>160</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>161</v>
@@ -4878,7 +4878,7 @@
         <v>164</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="DB1" s="1" t="s">
         <v>165</v>
@@ -4923,7 +4923,7 @@
         <v>178</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DQ1" s="1" t="s">
         <v>179</v>
@@ -4974,7 +4974,7 @@
         <v>192</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="EH1" s="1" t="s">
         <v>193</v>
@@ -5004,7 +5004,7 @@
         <v>201</v>
       </c>
       <c r="EQ1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="ER1" s="1" t="s">
         <v>202</v>
@@ -5037,10 +5037,10 @@
         <v>210</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="FD1" s="1" t="s">
         <v>211</v>
@@ -5055,7 +5055,7 @@
         <v>214</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="FI1" s="1" t="s">
         <v>215</v>
@@ -5085,7 +5085,7 @@
         <v>223</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="FS1" s="1" t="s">
         <v>224</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="2" spans="1:181">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>240</v>
@@ -5659,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>231</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -6746,10 +6746,10 @@
     </row>
     <row r="5" spans="1:181">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
         <v>231</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="DA5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="DB5">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C8" t="s">
         <v>231</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="FR8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="FS8">
         <v>0</v>

--- a/CFC Fantasy League 2025.xlsx
+++ b/CFC Fantasy League 2025.xlsx
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7839,7 +7839,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
         <v>231</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="EG7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="EH7">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
         <v>231</v>
@@ -8855,7 +8855,7 @@
         <v>296</v>
       </c>
       <c r="FC8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="FD8">
         <v>0</v>

--- a/CFC Fantasy League 2025.xlsx
+++ b/CFC Fantasy League 2025.xlsx
@@ -40,10 +40,10 @@
     <t>Gujju Gang</t>
   </si>
   <si>
+    <t>Raging Raptors</t>
+  </si>
+  <si>
     <t>La Furia Roja</t>
-  </si>
-  <si>
-    <t>Raging Raptors</t>
   </si>
   <si>
     <t>Supa Jinx Strikas</t>
@@ -1146,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1163,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1241,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3863,10 +3863,10 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="5" spans="1:181">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>222</v>
@@ -7836,10 +7836,10 @@
     </row>
     <row r="7" spans="1:181">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>231</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="EU7">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="EV7">
         <v>0</v>

--- a/CFC Fantasy League 2025.xlsx
+++ b/CFC Fantasy League 2025.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nisarg\Fantasy Points Calculator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95285212-4D45-45B3-A17A-2D4B09ABD356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3000" yWindow="1380" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Final Points" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,12 @@
     <sheet name="KKR vs RCB - Points Breakdown" sheetId="9" r:id="rId9"/>
     <sheet name="KKR vs RCB - CFC Points" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="238">
   <si>
     <t>Total Points</t>
   </si>
@@ -112,7 +118,7 @@
     <t>Ajinkya Rahane</t>
   </si>
   <si>
-    <t>Philip Salt</t>
+    <t>Phil Salt</t>
   </si>
   <si>
     <t>Josh Hazlewood</t>
@@ -172,9 +178,6 @@
     <t>Ravi Bishnoi</t>
   </si>
   <si>
-    <t>Nitish Reddy</t>
-  </si>
-  <si>
     <t>Maheesh Theekshana</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>Varun Chakaravarthy</t>
+  </si>
+  <si>
+    <t>Rasikh Salam Dar</t>
   </si>
   <si>
     <t>Jitesh Sharma</t>
@@ -301,10 +307,10 @@
     <t>Jake Fraser-McGurk</t>
   </si>
   <si>
-    <t>Tim David</t>
+    <t>Nitish Reddy</t>
   </si>
   <si>
-    <t>Rasikh Salam Dar</t>
+    <t>Tim David</t>
   </si>
   <si>
     <t>Mitchell Santner</t>
@@ -735,12 +741,15 @@
   <si>
     <t>None</t>
   </si>
+  <si>
+    <t>Philip Salt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,13 +812,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -847,7 +864,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -881,6 +898,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -915,9 +933,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,14 +1109,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1193,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1219,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1276,7 +1297,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1308,14 +1329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:FZ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CR1" sqref="CR1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:182">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1346,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -1443,7 +1466,7 @@
         <v>47</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>166</v>
@@ -1494,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>38</v>
@@ -1512,7 +1535,7 @@
         <v>96</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>27</v>
@@ -1521,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>177</v>
@@ -1560,7 +1583,7 @@
         <v>86</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>185</v>
@@ -1599,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>85</v>
@@ -1641,7 +1664,7 @@
         <v>200</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>201</v>
@@ -1650,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>75</v>
@@ -1671,7 +1694,7 @@
         <v>204</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="DQ1" s="1" t="s">
         <v>205</v>
@@ -1692,7 +1715,7 @@
         <v>207</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>48</v>
@@ -1731,7 +1754,7 @@
         <v>41</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>63</v>
@@ -1812,7 +1835,7 @@
         <v>228</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="FL1" s="1" t="s">
         <v>229</v>
@@ -1860,7 +1883,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:182">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2408,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:182">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:182">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3504,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:182">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4052,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:182">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4600,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:182">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5148,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:182">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5702,14 +5725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5732,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -5758,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -5784,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -5810,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5836,7 +5859,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5862,7 +5885,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -5888,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -5914,7 +5937,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -5940,7 +5963,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -5966,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -5992,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -6018,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6044,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6070,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -6096,7 +6119,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -6122,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -6148,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -6174,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -6200,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -6226,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -6252,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -6278,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -6304,7 +6327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -6330,7 +6353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -6356,7 +6379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -6382,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -6408,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -6434,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -6460,7 +6483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -6486,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -6512,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -6538,7 +6561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -6564,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -6590,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -6616,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -6642,7 +6665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -6668,12 +6691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -6682,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F38">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -6694,12 +6717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -6708,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -6717,10 +6740,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -6734,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -6743,15 +6766,15 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6760,24 +6783,24 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6786,19 +6809,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -6812,24 +6835,24 @@
         <v>0</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>57</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6838,24 +6861,24 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6864,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6876,12 +6899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6890,24 +6913,24 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6922,13 +6945,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -6954,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -6980,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -7006,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -7032,7 +7055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -7058,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -7084,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -7110,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -7136,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -7162,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -7188,7 +7211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -7214,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -7240,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -7266,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -7292,7 +7315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -7318,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -7344,7 +7367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -7370,7 +7393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -7396,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -7422,7 +7445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -7448,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -7474,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -7500,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -7526,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -7552,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -7578,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -7604,7 +7627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -7630,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -7656,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -7682,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -7708,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -7734,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -7760,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -7786,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -7812,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -7838,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -7864,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -7890,7 +7913,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -7916,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -7942,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -7968,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -8000,14 +8023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -8120,7 +8143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -8236,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -8271,7 +8294,7 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>161.11</v>
+        <v>161.11000000000001</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -8352,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
@@ -8468,7 +8491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -8584,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -8700,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -8816,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -8932,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -9048,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -9164,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -9280,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -9396,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -9512,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -9628,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -9744,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -9860,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -9976,9 +9999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>65</v>
@@ -10092,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -10208,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -10324,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -10446,14 +10469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:182">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10461,7 +10484,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -10581,7 +10604,7 @@
         <v>47</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>166</v>
@@ -10632,7 +10655,7 @@
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>38</v>
@@ -10650,7 +10673,7 @@
         <v>96</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>27</v>
@@ -10659,7 +10682,7 @@
         <v>22</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>177</v>
@@ -10698,7 +10721,7 @@
         <v>86</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>185</v>
@@ -10779,7 +10802,7 @@
         <v>200</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>201</v>
@@ -10788,7 +10811,7 @@
         <v>26</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>75</v>
@@ -10809,7 +10832,7 @@
         <v>204</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="DQ1" s="1" t="s">
         <v>205</v>
@@ -10830,7 +10853,7 @@
         <v>207</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>48</v>
@@ -10869,7 +10892,7 @@
         <v>41</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>63</v>
@@ -10950,7 +10973,7 @@
         <v>228</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="FL1" s="1" t="s">
         <v>229</v>
@@ -10998,7 +11021,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:182">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -11546,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:182">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12094,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:182">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -12642,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:182">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -13190,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:182">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -13738,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:182">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -14286,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:182">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14840,14 +14863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -14960,7 +14983,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -15076,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -15192,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>89</v>
       </c>
@@ -15308,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -15424,9 +15447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>65</v>
@@ -15540,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -15656,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -15772,9 +15795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>57</v>
@@ -15888,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -16004,9 +16027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -16120,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -16236,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -16352,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -16468,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -16584,7 +16607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -16619,7 +16642,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>157.14</v>
+        <v>157.13999999999999</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -16700,9 +16723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>51</v>
@@ -16816,9 +16839,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>66</v>
@@ -16932,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -17048,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -17164,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -17280,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -17396,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -17518,14 +17541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:182">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17533,7 +17556,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -17653,7 +17676,7 @@
         <v>47</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>166</v>
@@ -17704,7 +17727,7 @@
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>38</v>
@@ -17722,7 +17745,7 @@
         <v>96</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>27</v>
@@ -17731,7 +17754,7 @@
         <v>22</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>177</v>
@@ -17770,7 +17793,7 @@
         <v>86</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>185</v>
@@ -17851,7 +17874,7 @@
         <v>200</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>201</v>
@@ -17860,7 +17883,7 @@
         <v>26</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>75</v>
@@ -17881,7 +17904,7 @@
         <v>204</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="DQ1" s="1" t="s">
         <v>205</v>
@@ -17902,7 +17925,7 @@
         <v>207</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>48</v>
@@ -17941,7 +17964,7 @@
         <v>41</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>63</v>
@@ -18022,7 +18045,7 @@
         <v>228</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="FL1" s="1" t="s">
         <v>229</v>
@@ -18070,7 +18093,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:182">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -18618,7 +18641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:182">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -19166,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:182">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -19714,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:182">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -20262,7 +20285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:182">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -20810,7 +20833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:182">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -21358,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:182">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -21912,14 +21935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -22032,7 +22055,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -22148,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -22264,7 +22287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -22380,12 +22403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -22394,31 +22417,31 @@
         <v>140</v>
       </c>
       <c r="E5">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -22496,7 +22519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -22612,7 +22635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -22728,7 +22751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -22844,7 +22867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -22960,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -23076,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -23192,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -23308,7 +23331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -23343,7 +23366,7 @@
         <v>12</v>
       </c>
       <c r="L13">
-        <v>309.09</v>
+        <v>309.08999999999997</v>
       </c>
       <c r="M13">
         <v>30</v>
@@ -23424,7 +23447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -23540,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -23656,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -23772,7 +23795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -23888,7 +23911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -24004,9 +24027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>71</v>
@@ -24120,7 +24143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -24236,7 +24259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -24352,7 +24375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -24474,14 +24497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:FZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:182">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24489,7 +24512,7 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -24609,7 +24632,7 @@
         <v>47</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>166</v>
@@ -24660,7 +24683,7 @@
         <v>31</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>38</v>
@@ -24678,7 +24701,7 @@
         <v>96</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>27</v>
@@ -24687,7 +24710,7 @@
         <v>22</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>177</v>
@@ -24726,7 +24749,7 @@
         <v>86</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CF1" s="1" t="s">
         <v>185</v>
@@ -24807,7 +24830,7 @@
         <v>200</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DG1" s="1" t="s">
         <v>201</v>
@@ -24816,7 +24839,7 @@
         <v>26</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>75</v>
@@ -24837,7 +24860,7 @@
         <v>204</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="DQ1" s="1" t="s">
         <v>205</v>
@@ -24858,7 +24881,7 @@
         <v>207</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>48</v>
@@ -24897,7 +24920,7 @@
         <v>41</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>63</v>
@@ -24978,7 +25001,7 @@
         <v>228</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="FL1" s="1" t="s">
         <v>229</v>
@@ -25026,7 +25049,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:182">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -25574,7 +25597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:182">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -26122,7 +26145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:182">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -26670,7 +26693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:182">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -27218,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:182">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -27766,7 +27789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:182">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -28314,7 +28337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:182">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -28868,14 +28891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -28988,7 +29011,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -29104,7 +29127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -29139,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>85.70999999999999</v>
+        <v>85.71</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -29220,7 +29243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -29336,7 +29359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -29452,9 +29475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>57</v>
@@ -29487,7 +29510,7 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>136.36</v>
+        <v>136.36000000000001</v>
       </c>
       <c r="M6">
         <v>20</v>
@@ -29568,7 +29591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -29684,7 +29707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -29719,7 +29742,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>133.33</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -29800,7 +29823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>95</v>
       </c>
@@ -29916,7 +29939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -30032,7 +30055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
@@ -30148,9 +30171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>44</v>
@@ -30264,7 +30287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -30380,7 +30403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -30496,7 +30519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -30506,6 +30529,9 @@
       <c r="C15">
         <v>0</v>
       </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
       <c r="E15">
         <v>135</v>
       </c>
@@ -30609,7 +30635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -30725,7 +30751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -30841,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -30957,9 +30983,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -31073,7 +31099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -31189,12 +31215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -31236,7 +31262,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -31245,22 +31271,22 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>11.66</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -31278,13 +31304,13 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG21">
         <v>0</v>
@@ -31305,7 +31331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -31421,7 +31447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -31537,9 +31563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>59</v>
@@ -31653,7 +31679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
